--- a/Assets/Resources/1_Player/конечный автомат.xlsx
+++ b/Assets/Resources/1_Player/конечный автомат.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10275"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10275" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="35">
   <si>
     <t>Idle</t>
   </si>
@@ -72,13 +74,72 @@
   </si>
   <si>
     <t>LandingEnd</t>
+  </si>
+  <si>
+    <t>Falling</t>
+  </si>
+  <si>
+    <t>Стоим</t>
+  </si>
+  <si>
+    <t>Падаем</t>
+  </si>
+  <si>
+    <t>Презимляемся</t>
+  </si>
+  <si>
+    <t>StairsUp</t>
+  </si>
+  <si>
+    <t>StairsDown</t>
+  </si>
+  <si>
+    <t>RopeLeft</t>
+  </si>
+  <si>
+    <t>RopeRight</t>
+  </si>
+  <si>
+    <t>Перемещаемся
+по лестнице</t>
+  </si>
+  <si>
+    <t>Бежим</t>
+  </si>
+  <si>
+    <t>Пермещаемся
+по веревке</t>
+  </si>
+  <si>
+    <t>Fire</t>
+  </si>
+  <si>
+    <t>FireLeft</t>
+  </si>
+  <si>
+    <t>FireRihgt</t>
+  </si>
+  <si>
+    <t>Копаем</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>Down</t>
+  </si>
+  <si>
+    <t>StairsIdle</t>
+  </si>
+  <si>
+    <t>RopeIdle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +174,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -122,7 +191,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -130,17 +199,102 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -424,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -613,4 +767,442 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:O11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:15" s="5" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="3"/>
+      <c r="B3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="11"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+    </row>
+    <row r="4" spans="1:15" s="6" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:L3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:B37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>1120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assets/Resources/1_Player/конечный автомат.xlsx
+++ b/Assets/Resources/1_Player/конечный автомат.xlsx
@@ -9,12 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10275" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10275" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="40">
   <si>
     <t>Idle</t>
   </si>
@@ -133,6 +132,21 @@
   </si>
   <si>
     <t>RopeIdle</t>
+  </si>
+  <si>
+    <t>Stand</t>
+  </si>
+  <si>
+    <t>Fall</t>
+  </si>
+  <si>
+    <t>Ground</t>
+  </si>
+  <si>
+    <t>RunRihgt</t>
+  </si>
+  <si>
+    <t>RopeTake</t>
   </si>
 </sst>
 </file>
@@ -268,14 +282,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -284,6 +295,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -296,6 +310,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -594,14 +612,14 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
     </row>
     <row r="5" spans="3:9" ht="21" x14ac:dyDescent="0.35">
       <c r="C5" s="2"/>
@@ -771,15 +789,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:O11"/>
+  <dimension ref="A3:O21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:L3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
@@ -795,15 +813,15 @@
     <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15" s="5" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" s="4" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="9" t="s">
@@ -811,12 +829,12 @@
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="12"/>
       <c r="J3" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K3" s="11"/>
       <c r="L3" s="12"/>
@@ -826,47 +844,47 @@
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7" t="s">
+    <row r="4" spans="1:15" s="5" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="K4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="L4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O4" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -874,30 +892,166 @@
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>2</v>
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>31</v>
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="13"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+      <c r="D12" s="14"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D13" s="14"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
         <v>27</v>
+      </c>
+      <c r="D14" s="14"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="14"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -910,299 +1064,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B37"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>32</v>
-      </c>
-      <c r="B34">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>33</v>
-      </c>
-      <c r="B35">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>34</v>
-      </c>
-      <c r="B36">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>35</v>
-      </c>
-      <c r="B37">
-        <v>1120</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Assets/Resources/1_Player/конечный автомат.xlsx
+++ b/Assets/Resources/1_Player/конечный автомат.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="40">
   <si>
     <t>Idle</t>
   </si>
@@ -282,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -295,6 +295,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -310,10 +311,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -612,14 +609,14 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" spans="3:9" ht="21" x14ac:dyDescent="0.35">
       <c r="C5" s="2"/>
@@ -792,7 +789,7 @@
   <dimension ref="A3:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -824,25 +821,25 @@
       <c r="D3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10" t="s">
+      <c r="F3" s="10"/>
+      <c r="G3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="10" t="s">
+      <c r="H3" s="12"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="9" t="s">
+      <c r="K3" s="12"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
     </row>
     <row r="4" spans="1:15" s="5" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="6" t="s">
@@ -934,6 +931,15 @@
       <c r="F7" t="s">
         <v>36</v>
       </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
@@ -997,37 +1003,53 @@
       <c r="A11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="13"/>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="14"/>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D13" s="14"/>
+      <c r="D13" s="8"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="14"/>
+      <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="14"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="14"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D17" s="14"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
@@ -1036,7 +1058,7 @@
       <c r="C18" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="14"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">

--- a/Assets/Resources/1_Player/конечный автомат.xlsx
+++ b/Assets/Resources/1_Player/конечный автомат.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="41">
   <si>
     <t>Idle</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>RopeTake</t>
+  </si>
+  <si>
+    <t>RopeEnd</t>
   </si>
 </sst>
 </file>
@@ -786,10 +789,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:O21"/>
+  <dimension ref="A3:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -1026,6 +1029,15 @@
       <c r="D12" t="s">
         <v>14</v>
       </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D13" s="8"/>
@@ -1048,10 +1060,10 @@
       </c>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>37</v>
       </c>
@@ -1060,20 +1072,34 @@
       </c>
       <c r="D18" s="8"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
       <c r="D19" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C21" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
